--- a/Lab4/data/Lab4Data_ACS.xlsx
+++ b/Lab4/data/Lab4Data_ACS.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irenefarah/Documents/GitHub/CP-101-SP21/Lab4/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27F66C9-81D0-2443-B5DD-D4BD4162C51E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C45051C-1894-8D4D-8CC5-F47B1589D1BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="940" windowWidth="27640" windowHeight="16540" activeTab="1" xr2:uid="{8A9C7F9A-2022-1540-B9F1-48F264F4336A}"/>
+    <workbookView xWindow="1160" yWindow="940" windowWidth="27640" windowHeight="16540" xr2:uid="{8A9C7F9A-2022-1540-B9F1-48F264F4336A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tract_4004" sheetId="1" r:id="rId1"/>
     <sheet name="Ages" sheetId="2" r:id="rId2"/>
+    <sheet name="Percent MOE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Estimate</t>
   </si>
@@ -127,13 +128,40 @@
   </si>
   <si>
     <t>MOE; 75 years and over</t>
+  </si>
+  <si>
+    <t>Senior Adult</t>
+  </si>
+  <si>
+    <t>Working Age Adult</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>Percent MOE</t>
+  </si>
+  <si>
+    <t>Percent Estimate</t>
+  </si>
+  <si>
+    <t>MOE Census</t>
+  </si>
+  <si>
+    <t>Population Estimate</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Census Tract 4004 Population Demographics: Age</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -149,6 +177,21 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="SansSerif"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -204,11 +247,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -225,10 +270,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{F9EE0B8C-C413-4E44-985B-212FFE263F82}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{1C427560-9DEE-8242-A6DA-8A75481D932B}"/>
+    <cellStyle name="Percent 2" xfId="3" xr:uid="{B7470657-606A-634C-8592-7338D2D56606}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -241,6 +299,80 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6057214" cy="2507942"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11FF2F94-D8EC-1646-968E-2B8B516E0C7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5480050" y="266700"/>
+          <a:ext cx="6057214" cy="2507942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -542,9 +674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F13C59-5AF2-B848-B157-2003FA2ED9C7}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -646,102 +776,103 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03DDF1A-3BDC-174A-B879-FE85C70E2FE2}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="C1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="1" max="2" width="3.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="85">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="3:16" ht="85">
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2">
+    <row r="2" spans="3:16">
+      <c r="C2">
         <v>3986</v>
       </c>
-      <c r="B2">
+      <c r="D2">
         <v>250</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>257</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>101</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>421</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>125</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>1241</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>204</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>1569</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>140</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>329</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>77</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>169</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>59</v>
       </c>
     </row>
@@ -749,4 +880,99 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC542037-F01B-7845-9AC7-4C59D8E4437F}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" ht="17">
+      <c r="A2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="6">
+        <v>678</v>
+      </c>
+      <c r="C3" s="6">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="32">
+      <c r="A4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2810</v>
+      </c>
+      <c r="C4" s="6">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="6">
+        <v>498</v>
+      </c>
+      <c r="C5" s="6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3986</v>
+      </c>
+      <c r="C6" s="6">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>